--- a/medicine/Handicap/Sophie_d'Orléans/Sophie_d'Orléans.xlsx
+++ b/medicine/Handicap/Sophie_d'Orléans/Sophie_d'Orléans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sophie_d%27Orl%C3%A9ans</t>
+          <t>Sophie_d'Orléans</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sophie d'Orléans, née le 19 octobre 1898 à Neuilly[1], et morte le 9 octobre 1928 au château de Tourronde à Lugrin[1], seconde fille d'Emmanuel d'Orléans et de Henriette de Belgique est un membre de la famille d'Orléans. Elle porte le titre de courtoisie de princesse d'Orléans et elle est la petite-fille de Philippe de Flandre et de Marie de Hohenzollern-Sigmaringen mais aussi une petite-nièce par alliance de l'empereur d'Autriche François-Joseph Ier et une nièce du roi des Belges Albert Ier.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sophie d'Orléans, née le 19 octobre 1898 à Neuilly, et morte le 9 octobre 1928 au château de Tourronde à Lugrin, seconde fille d'Emmanuel d'Orléans et de Henriette de Belgique est un membre de la famille d'Orléans. Elle porte le titre de courtoisie de princesse d'Orléans et elle est la petite-fille de Philippe de Flandre et de Marie de Hohenzollern-Sigmaringen mais aussi une petite-nièce par alliance de l'empereur d'Autriche François-Joseph Ier et une nièce du roi des Belges Albert Ier.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sophie_d%27Orl%C3%A9ans</t>
+          <t>Sophie_d'Orléans</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sophie d'Orléans a une sœur aînée : Marie-Louise, une sœur cadette Geneviève et un frère cadet Charles-Philippe.
 La princesse naît un mois après l'assassinat de sa grand-tante l'impératrice d'Autriche  (la fameuse Sissi). Elle porte le prénom de sa grand-mère paternelle Sophie-Charlotte en Bavière, duchesse d'Alençon, morte accidentellement l'année précédente dans l'incendie du Bazar de la Charité.
-Quelques jours après sa naissance, Sophie d'Orléans est sujette à des convulsions. Elle survit, mais la pathologie laissera des traces irréversibles constituant un handicap à vie et retardant son développement mental[2]. Surnommée "Topy", la fillette est élevée avec ses sœurs selon la décision de ses parents[3]. Elle séjournera fréquemment à Bruxelles chez ses grands-parents maternels le comte et la comtesse de Flandre[4]. Cette dernière est particulièrement attachée à Sophie.
+Quelques jours après sa naissance, Sophie d'Orléans est sujette à des convulsions. Elle survit, mais la pathologie laissera des traces irréversibles constituant un handicap à vie et retardant son développement mental. Surnommée "Topy", la fillette est élevée avec ses sœurs selon la décision de ses parents. Elle séjournera fréquemment à Bruxelles chez ses grands-parents maternels le comte et la comtesse de Flandre. Cette dernière est particulièrement attachée à Sophie.
 En 1906, elle suit des "cours de paroles". En 1911, elle est emmenée à Lourdes où elle fait sa première communion le 8 mai et sa confirmation le lendemain. Elle est accueillie en mai 1913 à Laeken, chez son oncle le roi Albert Ier. Elle a une gouvernante attitrée en la personne de mademoiselle Solenvaux.
-Le 9 octobre 1928, Sophie meurt presque subitement d'une syncope par insuffisance du myocarde[5] à l'âge de 29 ans. Elle est enterrée en la chapelle royale Saint-Louis de Dreux.
+Le 9 octobre 1928, Sophie meurt presque subitement d'une syncope par insuffisance du myocarde à l'âge de 29 ans. Elle est enterrée en la chapelle royale Saint-Louis de Dreux.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sophie_d%27Orl%C3%A9ans</t>
+          <t>Sophie_d'Orléans</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Ascendance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ascendance de Sophie d'Orléans
